--- a/test_srg/zebrafish_addon_200.xlsx
+++ b/test_srg/zebrafish_addon_200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26759274")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28115725")</f>
         <v/>
       </c>
     </row>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/10474786")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25993524")</f>
         <v/>
       </c>
     </row>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/27110712")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31910818")</f>
         <v/>
       </c>
     </row>
@@ -472,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31896750")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/24263104")</f>
         <v/>
       </c>
     </row>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31068725")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/27383240")</f>
         <v/>
       </c>
     </row>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/24263104")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21483806")</f>
         <v/>
       </c>
     </row>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28115725")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28400332")</f>
         <v/>
       </c>
     </row>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/1242884")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32194632")</f>
         <v/>
       </c>
     </row>
@@ -517,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/11984872")</f>
+        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28398516")</f>
         <v/>
       </c>
     </row>
@@ -526,448 +526,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26806354")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/2054843")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26186543")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23221344")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31140678")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/11874415")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/30297989")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/19381858")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32257095")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32088770")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/22342721")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/20157318")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32219030")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28674520")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25976364")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/12062910")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/30442908")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28319194")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25469681")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30">
         <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28738802")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/27793086")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/10397540")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23895111")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31910818")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21483806")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/29378592")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23335590")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23225314")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25993524")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26365677")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/11175783")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26596841")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25639247")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32194632")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31134319")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/22226403")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/14754782")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/25888226")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23658843")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28517974")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/27383240")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/11849240")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/31773208")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/32799395")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/30775188")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/23223088")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28400332")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/21331521")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/26792935")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <f>HYPERLINK("https://pubmed.ncbi.nlm.nih.gov/28398516")</f>
         <v/>
       </c>
     </row>
